--- a/examples/Faure2006/Faure2006_reconstructed.xlsx
+++ b/examples/Faure2006/Faure2006_reconstructed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luna/Desktop/CRBM/Standards/TabularQual/table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luna/Desktop/CRBM/Standards/TabularQual/examples/Faure2006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DE6491-F5F8-1648-A3FF-6BCC9A0E7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA914BF9-BE14-CA42-B061-531FAA60A96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="20060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68740" yWindow="-2800" windowWidth="30220" windowHeight="27980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <t>2006-07-15T00:00:00Z</t>
   </si>
   <si>
-    <t>2025-10-04T21:44:29Z</t>
+    <t>2025-10-07T22:06:22Z</t>
   </si>
   <si>
     <t>Fauré, Adrien, "Institut de Biologie du Développement de Marseille-Luminy, Campus scientifique de Luminy"</t>
@@ -4115,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4246,7 +4246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="232" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4483,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="169" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5180,7 +5180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="152" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
